--- a/tut05/output/0401EE26.xlsx
+++ b/tut05/output/0401EE26.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.693877551020408</v>
+        <v>6.69</v>
       </c>
       <c r="C6" t="n">
-        <v>6.227272727272728</v>
+        <v>6.23</v>
       </c>
       <c r="D6" t="n">
-        <v>6.282608695652174</v>
+        <v>6.28</v>
       </c>
       <c r="E6" t="n">
-        <v>5.978260869565218</v>
+        <v>5.98</v>
       </c>
       <c r="F6" t="n">
-        <v>5.461538461538462</v>
+        <v>5.46</v>
       </c>
       <c r="G6" t="n">
         <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>6.116279069767442</v>
+        <v>6.12</v>
       </c>
       <c r="I6" t="n">
-        <v>6.842105263157895</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.693877551020408</v>
+        <v>6.69</v>
       </c>
       <c r="C8" t="n">
-        <v>6.473118279569892</v>
+        <v>6.47</v>
       </c>
       <c r="D8" t="n">
-        <v>6.410071942446043</v>
+        <v>6.41</v>
       </c>
       <c r="E8" t="n">
-        <v>6.302702702702702</v>
+        <v>6.3</v>
       </c>
       <c r="F8" t="n">
-        <v>6.15625</v>
+        <v>6.16</v>
       </c>
       <c r="G8" t="n">
-        <v>6.071969696969697</v>
+        <v>6.07</v>
       </c>
       <c r="H8" t="n">
-        <v>6.078175895765472</v>
+        <v>6.08</v>
       </c>
       <c r="I8" t="n">
-        <v>6.16231884057971</v>
+        <v>6.16</v>
       </c>
     </row>
   </sheetData>
